--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_12.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_12.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Shohei Inoue</t>
+          <t>Naoki Yoshida</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
